--- a/consolidatedassignments/iqvia-consolidatedassignments.xlsx
+++ b/consolidatedassignments/iqvia-consolidatedassignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2021\mean\consolidatedassignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EEDE17-3681-4CA0-ABC5-6AF540A4E5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366A1AE0-1D2B-4013-8473-41DE6A327B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="97">
   <si>
     <t>Sl No</t>
   </si>
@@ -296,6 +296,27 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>Git Account</t>
+  </si>
+  <si>
+    <t>https://github.com/rajeshncc/meantraining.git</t>
+  </si>
+  <si>
+    <t>https://github.com/meghasreekumar/iqviatraining</t>
+  </si>
+  <si>
+    <t>https://github.com/thenmozhiashok/MeanstackTrainning</t>
+  </si>
+  <si>
+    <t>https://github.com/Aravind125/Mean_stack.git</t>
+  </si>
+  <si>
+    <t>https://github.com/Athulsaji28/MeanTraining.git</t>
+  </si>
+  <si>
+    <t>https://github.com/Vasudevancse/Mean-stack</t>
   </si>
 </sst>
 </file>
@@ -387,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -419,12 +440,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -448,6 +480,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,7 +860,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,6 +871,7 @@
     <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="79" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.33203125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -858,6 +897,9 @@
       <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="H1" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="I1" s="10" t="s">
         <v>83</v>
       </c>
@@ -1193,7 +1235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1216,7 +1258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1239,7 +1281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1261,8 +1303,9 @@
       <c r="G19" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1285,7 +1328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1329,7 +1372,7 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1349,11 +1392,14 @@
         <v>23</v>
       </c>
       <c r="G23" s="5"/>
+      <c r="H23" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="I23" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1377,7 +1423,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1397,6 +1443,9 @@
         <v>23</v>
       </c>
       <c r="G25" s="5"/>
+      <c r="H25" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="I25" s="13" t="s">
         <v>84</v>
       </c>
@@ -1422,7 +1471,7 @@
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1442,6 +1491,9 @@
         <v>23</v>
       </c>
       <c r="G27" s="5"/>
+      <c r="H27" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="I27" s="11" t="s">
         <v>89</v>
       </c>
@@ -1466,11 +1518,14 @@
         <v>23</v>
       </c>
       <c r="G28" s="9"/>
+      <c r="H28" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="I28" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1490,11 +1545,14 @@
         <v>80</v>
       </c>
       <c r="G29" s="9"/>
+      <c r="H29" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="I29" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1510,6 +1568,9 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
+      <c r="H30" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="I30" s="12" t="s">
         <v>84</v>
       </c>
@@ -1544,7 +1605,14 @@
     <hyperlink ref="E27" r:id="rId26" display="mailto:aravind.pk@iqvia.com" xr:uid="{50A5D347-34B5-4353-AB51-0B69D178C525}"/>
     <hyperlink ref="E28" r:id="rId27" xr:uid="{14A68762-D4B5-4551-9C2C-B8E080AEADFB}"/>
     <hyperlink ref="E29" r:id="rId28" display="mailto:msreekumar@in.imshealth.com" xr:uid="{33DD27E3-5281-4FF8-9C7A-EB18E4C59868}"/>
+    <hyperlink ref="H28" r:id="rId29" xr:uid="{E559983C-0F3F-4041-8FAC-02484FB49310}"/>
+    <hyperlink ref="H29" r:id="rId30" xr:uid="{924EC810-EF4A-40B0-81C9-F57231EEDAAB}"/>
+    <hyperlink ref="H23" r:id="rId31" xr:uid="{164D0E65-86F8-4A2D-81E6-0EF59AF1FCAF}"/>
+    <hyperlink ref="H27" r:id="rId32" tooltip="https://github.com/aravind125/mean_stack.git" xr:uid="{E09535B9-FE52-4816-96D2-1FCC2D84AD88}"/>
+    <hyperlink ref="H30" r:id="rId33" tooltip="https://github.com/athulsaji28/meantraining.git" xr:uid="{18C34867-966E-43D4-A09D-AE38912B82DC}"/>
+    <hyperlink ref="H25" r:id="rId34" tooltip="https://github.com/vasudevancse/mean-stack" xr:uid="{AAE84591-AC7A-4FB1-8BD1-7EEDC58C70B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId35"/>
 </worksheet>
 </file>
--- a/consolidatedassignments/iqvia-consolidatedassignments.xlsx
+++ b/consolidatedassignments/iqvia-consolidatedassignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2021\mean\consolidatedassignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366A1AE0-1D2B-4013-8473-41DE6A327B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF1EAB7-846F-422F-9CD4-2A6D1785BC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
   <si>
     <t>Sl No</t>
   </si>
@@ -317,13 +317,40 @@
   </si>
   <si>
     <t>https://github.com/Vasudevancse/Mean-stack</t>
+  </si>
+  <si>
+    <t>https://github.com/Monisha-1/Monisha-MEANSTACK-Training</t>
+  </si>
+  <si>
+    <t>https://github.com/janarthanankumarasamy/Meanstacktraining</t>
+  </si>
+  <si>
+    <t>https://github.com/vignesh9006/test.git</t>
+  </si>
+  <si>
+    <t>https://github.com/BibishaTheras/mean.git</t>
+  </si>
+  <si>
+    <t>https://github.com/thatiparthimuralipremchand</t>
+  </si>
+  <si>
+    <t>https://github.com/KhaleedaFathima/Mean-Stack</t>
+  </si>
+  <si>
+    <t>https://github.com/santhiyanadeen14/MeanStackTraining</t>
+  </si>
+  <si>
+    <t>Photo App-Consolidated-Week2</t>
+  </si>
+  <si>
+    <t>https://github.com/Lathasubbarayalu/Meanstack-Training.git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,8 +414,15 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +438,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -487,6 +527,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -857,10 +902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637FB33B-3C69-46FC-BC4F-09CB38A053F6}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,11 +916,12 @@
     <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="79" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -903,8 +949,11 @@
       <c r="I1" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -924,12 +973,16 @@
         <v>23</v>
       </c>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H2" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -948,12 +1001,13 @@
       <c r="I3" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -969,8 +1023,12 @@
         <v>23</v>
       </c>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -990,8 +1048,9 @@
         <v>23</v>
       </c>
       <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1011,8 +1070,12 @@
         <v>23</v>
       </c>
       <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1032,12 +1095,13 @@
         <v>23</v>
       </c>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1053,11 +1117,15 @@
         <v>23</v>
       </c>
       <c r="G8" s="5"/>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
       <c r="I8" s="11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1077,8 +1145,12 @@
         <v>23</v>
       </c>
       <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1098,12 +1170,13 @@
         <v>23</v>
       </c>
       <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1119,8 +1192,12 @@
         <v>23</v>
       </c>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H11" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1142,8 +1219,9 @@
       <c r="G12" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1165,8 +1243,9 @@
       <c r="G13" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1188,8 +1267,9 @@
       <c r="G14" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1211,8 +1291,9 @@
       <c r="G15" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1234,8 +1315,9 @@
       <c r="G16" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1257,8 +1339,9 @@
       <c r="G17" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1280,8 +1363,9 @@
       <c r="G18" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1304,8 +1388,9 @@
         <v>45</v>
       </c>
       <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1327,8 +1412,9 @@
       <c r="G20" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1350,8 +1436,9 @@
       <c r="G21" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1371,12 +1458,16 @@
         <v>23</v>
       </c>
       <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H22" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="20" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1398,12 +1489,13 @@
       <c r="I23" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1419,11 +1511,15 @@
         <v>23</v>
       </c>
       <c r="G24" s="5"/>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
       <c r="I24" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1449,8 +1545,9 @@
       <c r="I25" s="13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1470,12 +1567,13 @@
         <v>23</v>
       </c>
       <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1497,12 +1595,15 @@
       <c r="I27" s="11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="J27" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1524,12 +1625,13 @@
       <c r="I28" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1551,12 +1653,13 @@
       <c r="I29" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1573,6 +1676,9 @@
       </c>
       <c r="I30" s="12" t="s">
         <v>84</v>
+      </c>
+      <c r="J30" s="22">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1611,8 +1717,13 @@
     <hyperlink ref="H27" r:id="rId32" tooltip="https://github.com/aravind125/mean_stack.git" xr:uid="{E09535B9-FE52-4816-96D2-1FCC2D84AD88}"/>
     <hyperlink ref="H30" r:id="rId33" tooltip="https://github.com/athulsaji28/meantraining.git" xr:uid="{18C34867-966E-43D4-A09D-AE38912B82DC}"/>
     <hyperlink ref="H25" r:id="rId34" tooltip="https://github.com/vasudevancse/mean-stack" xr:uid="{AAE84591-AC7A-4FB1-8BD1-7EEDC58C70B9}"/>
+    <hyperlink ref="H22" r:id="rId35" tooltip="https://github.com/vignesh9006/test.git" xr:uid="{DB7A78A0-2D48-47C6-BC79-2B94C3DCE9D9}"/>
+    <hyperlink ref="H11" r:id="rId36" tooltip="https://github.com/bibishatheras/mean.git" xr:uid="{82E54CD0-6F1C-4F68-A84F-9677D7CF264D}"/>
+    <hyperlink ref="H6" r:id="rId37" tooltip="https://github.com/thatiparthimuralipremchand" xr:uid="{49D55223-5FFC-430D-9027-879F9DC1B72F}"/>
+    <hyperlink ref="H9" r:id="rId38" tooltip="https://github.com/khaleedafathima/mean-stack" xr:uid="{43BB93FD-3BFA-4F93-8639-D507C737BD7C}"/>
+    <hyperlink ref="H2" r:id="rId39" tooltip="https://github.com/lathasubbarayalu/meanstack-training.git" xr:uid="{70B74436-6C05-4C29-A57F-D346B7AA8803}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId35"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId40"/>
 </worksheet>
 </file>